--- a/data/db_source/folder.xlsx
+++ b/data/db_source/folder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannuaire/datannuaire_dev/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30186BA3-DB9D-3143-BDD0-8309B1FA203E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A145D9D4-1698-7D42-A4F0-2C2FC9EB2907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="25560" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
   <si>
     <t>id</t>
   </si>
@@ -49,87 +49,24 @@
     <t>localisation</t>
   </si>
   <si>
-    <t>folder_1</t>
-  </si>
-  <si>
-    <t>folder_2</t>
-  </si>
-  <si>
-    <t>folder_3</t>
-  </si>
-  <si>
-    <t>institution_1</t>
-  </si>
-  <si>
-    <t>institution_3</t>
-  </si>
-  <si>
-    <t>folder 1</t>
-  </si>
-  <si>
-    <t>folder 2</t>
-  </si>
-  <si>
-    <t>folder 3</t>
-  </si>
-  <si>
-    <t>description of folder 1</t>
-  </si>
-  <si>
-    <t>description of folder 2</t>
-  </si>
-  <si>
-    <t>description of folder 3</t>
-  </si>
-  <si>
-    <t>vaud</t>
-  </si>
-  <si>
     <t>genève</t>
   </si>
   <si>
-    <t>institution_2</t>
-  </si>
-  <si>
     <t>survey_type</t>
   </si>
   <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>admin.</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>delivery_format</t>
   </si>
   <si>
     <t>csv</t>
   </si>
   <si>
-    <t>sas</t>
-  </si>
-  <si>
-    <t>excel</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
     <t>updating_each</t>
   </si>
   <si>
     <t>last_update_date</t>
   </si>
   <si>
-    <t>2023/12/23</t>
-  </si>
-  <si>
     <t>metadata_path</t>
   </si>
   <si>
@@ -139,20 +76,308 @@
     <t>git_code</t>
   </si>
   <si>
-    <t>https://github.com/bitcoin/bitcoin</t>
-  </si>
-  <si>
-    <t>/my/metadata/path</t>
-  </si>
-  <si>
-    <t>/my/data/path</t>
+    <t>00-base</t>
+  </si>
+  <si>
+    <t>00 - Bases statistiques et généralités</t>
+  </si>
+  <si>
+    <t>01-pop</t>
+  </si>
+  <si>
+    <t>01 - Population</t>
+  </si>
+  <si>
+    <t>02-espace</t>
+  </si>
+  <si>
+    <t>02 - Espace et environnement</t>
+  </si>
+  <si>
+    <t>03-travail</t>
+  </si>
+  <si>
+    <t>03 - Travail et rémunération</t>
+  </si>
+  <si>
+    <t>04-economie</t>
+  </si>
+  <si>
+    <t>04 - Economie nationale</t>
+  </si>
+  <si>
+    <t>05-prix</t>
+  </si>
+  <si>
+    <t>05 - Prix</t>
+  </si>
+  <si>
+    <t>06-industrie</t>
+  </si>
+  <si>
+    <t>06 - Industrie et services</t>
+  </si>
+  <si>
+    <t>07-agriculture</t>
+  </si>
+  <si>
+    <t>07 - Agriculture et sylviculture</t>
+  </si>
+  <si>
+    <t>08-energie</t>
+  </si>
+  <si>
+    <t>08 - Energie</t>
+  </si>
+  <si>
+    <t>09-construction</t>
+  </si>
+  <si>
+    <t>09 - Construction et logement</t>
+  </si>
+  <si>
+    <t>10-tourisme</t>
+  </si>
+  <si>
+    <t>10 - Tourisme</t>
+  </si>
+  <si>
+    <t>11-mobilite</t>
+  </si>
+  <si>
+    <t>11 - Mobilité et transports</t>
+  </si>
+  <si>
+    <t>12-monnaie</t>
+  </si>
+  <si>
+    <t>12 - Monnaie, banques, assurances</t>
+  </si>
+  <si>
+    <t>13-protec-social</t>
+  </si>
+  <si>
+    <t>13 - Protection sociale</t>
+  </si>
+  <si>
+    <t>14-sante</t>
+  </si>
+  <si>
+    <t>14 - Santé</t>
+  </si>
+  <si>
+    <t>15-education</t>
+  </si>
+  <si>
+    <t>15 - Education et science</t>
+  </si>
+  <si>
+    <t>16-culture</t>
+  </si>
+  <si>
+    <t>16 - Culture, médias, société de l'information, sport</t>
+  </si>
+  <si>
+    <t>17-politique</t>
+  </si>
+  <si>
+    <t>17 - Politique</t>
+  </si>
+  <si>
+    <t>18-administration</t>
+  </si>
+  <si>
+    <t>18 - Administration et finances publiques</t>
+  </si>
+  <si>
+    <t>19-criminalite</t>
+  </si>
+  <si>
+    <t>19 - Criminalité et droit pénal</t>
+  </si>
+  <si>
+    <t>20-situation-eco</t>
+  </si>
+  <si>
+    <t>20 - Situation économique et sociale de la population</t>
+  </si>
+  <si>
+    <t>21-dev-durable</t>
+  </si>
+  <si>
+    <t>21 - Développement durable, disparités régionales et internationales</t>
+  </si>
+  <si>
+    <t>prodima</t>
+  </si>
+  <si>
+    <t>Liste des produits et des sous-produits de l'OFS</t>
+  </si>
+  <si>
+    <t>statpop</t>
+  </si>
+  <si>
+    <t>bevnat</t>
+  </si>
+  <si>
+    <t>La Statistique de la population et des ménages fait partie du système de recensement annuel de la population. Elle livre des informations concernant l’effectif et la structure de la population résidente à la fin d’une année ainsi que des mouvements de la population pendant l’année en cours. Ensemble avec le relevé structurel, elle est la base de la statistique des ménages.</t>
+  </si>
+  <si>
+    <t>Statistique annuelle des naissances, des mariages, des divorces, des décès, des reconnaissances de paternité, des adoptions et des partenariats enregistrés. BEVNAT est l'une des principales statistiques permettant de suivre l'évolution du mariage et de la famille en Suisse. Elle fournit en outre des données de référence utiles à la statistique de la population et des ménages (STATPOP), aux scénarios démographiques et au calcul d'indicateurs démographiques.</t>
+  </si>
+  <si>
+    <t>OFS (Prodima)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepts, méthodes et définitions utilisés dans les statistiques publiques.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse des données démographiques, telles que la taille, la structure et la dynamique de la population.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Étude des territoires, de l'utilisation des sols et des ressources naturelles.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistiques sur l'emploi, le chômage et les salaires.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicateurs de la performance économique globale du pays.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Évolution des prix à la consommation et des autres indices de prix.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données sur les activités industrielles, commerciales et de services.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données relatives à l'agriculture, la sylviculture et la pêche.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données sur la production, la consommation et la distribution d'énergie.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informations sur la construction, les permis de construire et le logement.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicateurs des flux touristiques et des activités connexes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistiques sur la mobilité, les infrastructures et les transports.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données sur les banques, les assurances et la monnaie.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicateurs sur la sécurité sociale, les retraites et les prestations sociales.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données sur la santé publique, les infrastructures sanitaires et la mortalité.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicateurs sur l'éducation, la recherche et les innovations scientifiques.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistiques sur la culture, les médias, le sport et la société de l'information.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données sur la gouvernance, les élections et les partis politiques.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informations sur les finances publiques et l'administration.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistiques sur la criminalité, la justice et le droit pénal.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse de la situation socio-économique des individus et des ménages.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicateurs sur le développement durable et les disparités régionales et internationales.  </t>
+  </si>
+  <si>
+    <t>STATPOP : Statistique de la population et des ménages</t>
+  </si>
+  <si>
+    <t>BEVNAT : Statistique du mouvement naturel de la population</t>
+  </si>
+  <si>
+    <t>https://www.bfs.admin.ch/bfs/fr/home/statistiques/population/enquetes/statpop.assetdetail.21644016.html</t>
+  </si>
+  <si>
+    <t>2024/08/29</t>
+  </si>
+  <si>
+    <t>annuelle</t>
+  </si>
+  <si>
+    <t>suisse</t>
+  </si>
+  <si>
+    <t>registre</t>
+  </si>
+  <si>
+    <t>ofs-demo</t>
+  </si>
+  <si>
+    <t>ofs</t>
+  </si>
+  <si>
+    <t>2023/06/03</t>
+  </si>
+  <si>
+    <t>encolonné</t>
+  </si>
+  <si>
+    <t>/bfs/fr/home/statistiques/population/enquetes/statpop.assetdetail.7766422.html</t>
+  </si>
+  <si>
+    <t>/bfs/fr/home/statistiques/population/enquetes/bevnat.assetdetail.2164045.html</t>
+  </si>
+  <si>
+    <t>/bfs/fr/home/statistiques/population/enquetes/bevnat.html</t>
+  </si>
+  <si>
+    <t>ofs-tourisme</t>
+  </si>
+  <si>
+    <t>ofs-div-pop</t>
+  </si>
+  <si>
+    <t>ofs-div-sante</t>
+  </si>
+  <si>
+    <t>ofs-div-inter</t>
+  </si>
+  <si>
+    <t>ofs-div-terr</t>
+  </si>
+  <si>
+    <t>ofs-travail</t>
+  </si>
+  <si>
+    <t>ofs-batiment</t>
+  </si>
+  <si>
+    <t>ofs-salaire</t>
+  </si>
+  <si>
+    <t>ofs-conjonct</t>
+  </si>
+  <si>
+    <t>ofs-crim</t>
+  </si>
+  <si>
+    <t>ofs-sys-form</t>
+  </si>
+  <si>
+    <t>ofs-pop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +390,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,9 +418,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,8 +444,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08C76FB-17A0-4B45-8906-D499EF0568E9}" name="Tableau1" displayName="Tableau1" ref="A1:P4" totalsRowShown="0">
-  <autoFilter ref="A1:P4" xr:uid="{C08C76FB-17A0-4B45-8906-D499EF0568E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08C76FB-17A0-4B45-8906-D499EF0568E9}" name="Tableau1" displayName="Tableau1" ref="A1:P26" totalsRowShown="0">
+  <autoFilter ref="A1:P26" xr:uid="{C08C76FB-17A0-4B45-8906-D499EF0568E9}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{09DA0DB8-9D44-0745-A92C-DF1C35CD9EBE}" name="id"/>
     <tableColumn id="2" xr3:uid="{21E98347-F74D-DB40-8A51-7D5294DE73EA}" name="parent_id"/>
@@ -523,19 +755,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
@@ -577,135 +810,572 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <v>2012</v>
-      </c>
-      <c r="H2">
-        <v>2024</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="M3" s="1"/>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
       </c>
       <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>89</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25">
+        <v>2010</v>
+      </c>
+      <c r="H25">
+        <v>2023</v>
+      </c>
+      <c r="I25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>2019</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" t="s">
-        <v>40</v>
+      <c r="L25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N25" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26">
+        <v>2012</v>
+      </c>
+      <c r="H26">
+        <v>2022</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" t="s">
+        <v>95</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N26" t="s">
+        <v>103</v>
+      </c>
+      <c r="O26" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/db_source/folder.xlsx
+++ b/data/db_source/folder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A145D9D4-1698-7D42-A4F0-2C2FC9EB2907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C2C1EE-BA3D-854C-8611-4EB2FD050ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="25560" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -371,6 +371,27 @@
   </si>
   <si>
     <t>ofs-pop</t>
+  </si>
+  <si>
+    <t>tag_ids</t>
+  </si>
+  <si>
+    <t>doc_ids</t>
+  </si>
+  <si>
+    <t>tourisme_exemple</t>
+  </si>
+  <si>
+    <t>bevnat_info, bevnat_variable</t>
+  </si>
+  <si>
+    <t>statpop_info</t>
+  </si>
+  <si>
+    <t>personal_data, sensible_data, population</t>
+  </si>
+  <si>
+    <t>personal_data, population, societe</t>
   </si>
 </sst>
 </file>
@@ -444,9 +465,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08C76FB-17A0-4B45-8906-D499EF0568E9}" name="Tableau1" displayName="Tableau1" ref="A1:P26" totalsRowShown="0">
-  <autoFilter ref="A1:P26" xr:uid="{C08C76FB-17A0-4B45-8906-D499EF0568E9}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08C76FB-17A0-4B45-8906-D499EF0568E9}" name="Tableau1" displayName="Tableau1" ref="A1:R26" totalsRowShown="0">
+  <autoFilter ref="A1:R26" xr:uid="{C08C76FB-17A0-4B45-8906-D499EF0568E9}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{09DA0DB8-9D44-0745-A92C-DF1C35CD9EBE}" name="id"/>
     <tableColumn id="2" xr3:uid="{21E98347-F74D-DB40-8A51-7D5294DE73EA}" name="parent_id"/>
     <tableColumn id="3" xr3:uid="{E4E9BDF4-CE25-694D-BE63-C890319027E7}" name="owner_id"/>
@@ -463,6 +484,8 @@
     <tableColumn id="14" xr3:uid="{796DA115-F354-914F-88E3-19F47C8A40A1}" name="metadata_path"/>
     <tableColumn id="15" xr3:uid="{FA92769D-F3F4-0549-91ED-42BA1FB808FB}" name="data_path"/>
     <tableColumn id="16" xr3:uid="{97EA7C5B-D3BE-A440-A583-D4CDA21A8E2A}" name="git_code"/>
+    <tableColumn id="17" xr3:uid="{A1BC68E0-0976-B449-9EA0-810872253F91}" name="tag_ids"/>
+    <tableColumn id="18" xr3:uid="{1A2386FC-4C23-F74F-B1E6-D8125760999F}" name="doc_ids"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -755,11 +778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -779,9 +804,11 @@
     <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -830,8 +857,14 @@
       <c r="P1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -846,7 +879,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -867,7 +900,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -888,7 +921,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -909,7 +942,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -930,7 +963,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -951,7 +984,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -972,7 +1005,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -993,7 +1026,7 @@
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1014,7 +1047,7 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1032,7 +1065,7 @@
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1053,7 +1086,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1073,8 +1106,11 @@
         <v>79</v>
       </c>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1092,7 +1128,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1110,7 +1146,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1128,7 +1164,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1149,7 +1185,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1170,7 +1206,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1188,7 +1224,7 @@
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1206,7 +1242,7 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1224,7 +1260,7 @@
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1245,7 +1281,7 @@
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1263,7 +1299,7 @@
       </c>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -1284,7 +1320,7 @@
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1330,8 +1366,14 @@
       <c r="P25" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" t="s">
+        <v>123</v>
+      </c>
+      <c r="R25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1376,6 +1418,12 @@
       </c>
       <c r="O26" t="s">
         <v>104</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>122</v>
+      </c>
+      <c r="R26" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/db_source/folder.xlsx
+++ b/data/db_source/folder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C2C1EE-BA3D-854C-8611-4EB2FD050ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE1628B-311C-6348-B875-505A77AE2082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="25560" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/db_source/folder.xlsx
+++ b/data/db_source/folder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE1628B-311C-6348-B875-505A77AE2082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DE6784-8909-C54B-95FE-2E06F61C4B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,10 +781,10 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U25" sqref="U25"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1144,6 +1144,9 @@
       <c r="F15" t="s">
         <v>81</v>
       </c>
+      <c r="G15">
+        <v>2020</v>
+      </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">

--- a/data/db_source/folder.xlsx
+++ b/data/db_source/folder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DE6784-8909-C54B-95FE-2E06F61C4B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBC41BA-3112-3B4C-9E5C-7E2A37C6CEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2080" yWindow="500" windowWidth="26720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>personal_data, population, societe</t>
+  </si>
+  <si>
+    <t>mensuelle</t>
   </si>
 </sst>
 </file>
@@ -781,10 +784,10 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1396,7 +1399,7 @@
         <v>67</v>
       </c>
       <c r="G26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H26">
         <v>2022</v>
@@ -1411,7 +1414,7 @@
         <v>101</v>
       </c>
       <c r="L26" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>100</v>

--- a/data/db_source/folder.xlsx
+++ b/data/db_source/folder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBC41BA-3112-3B4C-9E5C-7E2A37C6CEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65B9EFA-101E-5240-8FA8-AE80BB867659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="500" windowWidth="26720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,9 +322,6 @@
     <t>ofs</t>
   </si>
   <si>
-    <t>2023/06/03</t>
-  </si>
-  <si>
     <t>encolonné</t>
   </si>
   <si>
@@ -395,6 +392,9 @@
   </si>
   <si>
     <t>mensuelle</t>
+  </si>
+  <si>
+    <t>2025/01/03</t>
   </si>
 </sst>
 </file>
@@ -784,10 +784,10 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -861,10 +861,10 @@
         <v>17</v>
       </c>
       <c r="Q1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" t="s">
         <v>117</v>
-      </c>
-      <c r="R1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -914,7 +914,7 @@
         <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -935,7 +935,7 @@
         <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -956,7 +956,7 @@
         <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -977,7 +977,7 @@
         <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -998,7 +998,7 @@
         <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -1019,7 +1019,7 @@
         <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -1040,7 +1040,7 @@
         <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
@@ -1079,7 +1079,7 @@
         <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
@@ -1100,7 +1100,7 @@
         <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="M13" s="1"/>
       <c r="R13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1150,6 +1150,9 @@
       <c r="G15">
         <v>2020</v>
       </c>
+      <c r="H15">
+        <v>2023</v>
+      </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1181,7 +1184,7 @@
         <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
@@ -1202,7 +1205,7 @@
         <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -1277,7 +1280,7 @@
         <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
         <v>57</v>
@@ -1316,7 +1319,7 @@
         <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
         <v>61</v>
@@ -1348,9 +1351,6 @@
       <c r="G25">
         <v>2010</v>
       </c>
-      <c r="H25">
-        <v>2023</v>
-      </c>
       <c r="I25" t="s">
         <v>96</v>
       </c>
@@ -1367,16 +1367,16 @@
         <v>94</v>
       </c>
       <c r="N25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P25" t="s">
         <v>93</v>
       </c>
       <c r="Q25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -1390,7 +1390,7 @@
         <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
         <v>92</v>
@@ -1401,9 +1401,6 @@
       <c r="G26">
         <v>2011</v>
       </c>
-      <c r="H26">
-        <v>2022</v>
-      </c>
       <c r="I26" t="s">
         <v>9</v>
       </c>
@@ -1411,25 +1408,25 @@
         <v>97</v>
       </c>
       <c r="K26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s">
+        <v>123</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="N26" t="s">
+        <v>102</v>
+      </c>
+      <c r="O26" t="s">
         <v>103</v>
       </c>
-      <c r="O26" t="s">
-        <v>104</v>
-      </c>
       <c r="Q26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/db_source/folder.xlsx
+++ b/data/db_source/folder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65B9EFA-101E-5240-8FA8-AE80BB867659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7458BFD5-FBE2-BE4C-AD28-DCBEFCAC2AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="500" windowWidth="26720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -395,6 +395,12 @@
   </si>
   <si>
     <t>2025/01/03</t>
+  </si>
+  <si>
+    <t>no_more_update</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -468,9 +477,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08C76FB-17A0-4B45-8906-D499EF0568E9}" name="Tableau1" displayName="Tableau1" ref="A1:R26" totalsRowShown="0">
-  <autoFilter ref="A1:R26" xr:uid="{C08C76FB-17A0-4B45-8906-D499EF0568E9}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08C76FB-17A0-4B45-8906-D499EF0568E9}" name="Tableau1" displayName="Tableau1" ref="A1:S26" totalsRowShown="0">
+  <autoFilter ref="A1:S26" xr:uid="{C08C76FB-17A0-4B45-8906-D499EF0568E9}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{09DA0DB8-9D44-0745-A92C-DF1C35CD9EBE}" name="id"/>
     <tableColumn id="2" xr3:uid="{21E98347-F74D-DB40-8A51-7D5294DE73EA}" name="parent_id"/>
     <tableColumn id="3" xr3:uid="{E4E9BDF4-CE25-694D-BE63-C890319027E7}" name="owner_id"/>
@@ -483,7 +492,8 @@
     <tableColumn id="10" xr3:uid="{0602EF7E-E665-9A45-B5A6-113DE6426605}" name="survey_type"/>
     <tableColumn id="11" xr3:uid="{4A0B91C2-9825-EC4D-840F-587D66E826AC}" name="delivery_format"/>
     <tableColumn id="12" xr3:uid="{04411BD8-781F-244C-A2BE-8F3FEF5CE025}" name="updating_each"/>
-    <tableColumn id="13" xr3:uid="{3A4CF3CE-FE05-A74B-A25A-998DA66B76EB}" name="last_update_date" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{3A4CF3CE-FE05-A74B-A25A-998DA66B76EB}" name="last_update_date" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{1EF57530-A605-664A-A98A-2D48430BC346}" name="no_more_update" dataDxfId="0"/>
     <tableColumn id="14" xr3:uid="{796DA115-F354-914F-88E3-19F47C8A40A1}" name="metadata_path"/>
     <tableColumn id="15" xr3:uid="{FA92769D-F3F4-0549-91ED-42BA1FB808FB}" name="data_path"/>
     <tableColumn id="16" xr3:uid="{97EA7C5B-D3BE-A440-A583-D4CDA21A8E2A}" name="git_code"/>
@@ -781,13 +791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -804,14 +814,15 @@
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -852,22 +863,25 @@
         <v>14</v>
       </c>
       <c r="N1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>116</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -881,8 +895,9 @@
         <v>63</v>
       </c>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -902,8 +917,9 @@
         <v>69</v>
       </c>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -923,8 +939,9 @@
         <v>70</v>
       </c>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -944,8 +961,9 @@
         <v>71</v>
       </c>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -965,8 +983,9 @@
         <v>72</v>
       </c>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -986,8 +1005,9 @@
         <v>73</v>
       </c>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1007,8 +1027,9 @@
         <v>74</v>
       </c>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1028,8 +1049,9 @@
         <v>75</v>
       </c>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1049,8 +1071,9 @@
         <v>76</v>
       </c>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1067,8 +1090,9 @@
         <v>77</v>
       </c>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1088,8 +1112,9 @@
         <v>78</v>
       </c>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1109,11 +1134,12 @@
         <v>79</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="R13" t="s">
+      <c r="N13" s="1"/>
+      <c r="S13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1130,8 +1156,9 @@
         <v>80</v>
       </c>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1154,8 +1181,9 @@
         <v>2023</v>
       </c>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1172,8 +1200,9 @@
         <v>82</v>
       </c>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1193,8 +1222,9 @@
         <v>83</v>
       </c>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1214,8 +1244,9 @@
         <v>84</v>
       </c>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1232,8 +1263,9 @@
         <v>85</v>
       </c>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1250,8 +1282,9 @@
         <v>86</v>
       </c>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1268,8 +1301,9 @@
         <v>87</v>
       </c>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1289,8 +1323,9 @@
         <v>88</v>
       </c>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1307,8 +1342,9 @@
         <v>89</v>
       </c>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -1328,8 +1364,9 @@
         <v>90</v>
       </c>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1366,20 +1403,21 @@
       <c r="M25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="1"/>
+      <c r="O25" t="s">
         <v>101</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>93</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>122</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1416,16 +1454,19 @@
       <c r="M26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O26" t="s">
         <v>102</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>103</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>121</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>119</v>
       </c>
     </row>
